--- a/output/1Y_P82_1VAL-D.xlsx
+++ b/output/1Y_P82_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>651.0205</v>
       </c>
-      <c r="G2" s="1">
-        <v>651.0205</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1137</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1137</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E3" s="1">
+        <v>651.0205</v>
+      </c>
       <c r="F3" s="1">
         <v>654.4674</v>
       </c>
-      <c r="G3" s="1">
-        <v>1305.4879</v>
-      </c>
       <c r="H3" s="1">
-        <v>19843.8073</v>
+        <v>9895.7065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3199</v>
+        <v>9895.7065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19843.8073</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0052</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E4" s="1">
+        <v>1305.4879</v>
+      </c>
       <c r="F4" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>1954.7458</v>
-      </c>
       <c r="H4" s="1">
-        <v>29951.2011</v>
+        <v>20003.0768</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3473</v>
+        <v>20003.0768</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3199</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29951.2011</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.042</v>
       </c>
+      <c r="E5" s="1">
+        <v>1954.7458</v>
+      </c>
       <c r="F5" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G5" s="1">
-        <v>2578.1094</v>
-      </c>
       <c r="H5" s="1">
-        <v>41143.7907</v>
+        <v>31195.5922</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.5152</v>
+        <v>31195.5922</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3473</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41143.7907</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0299</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E6" s="1">
+        <v>2578.1094</v>
+      </c>
       <c r="F6" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G6" s="1">
-        <v>3209.2552</v>
-      </c>
       <c r="H6" s="1">
-        <v>50584.2808</v>
+        <v>40636.161</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5799</v>
+        <v>40636.161</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5152</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50584.2808</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0109</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E7" s="1">
+        <v>3209.2552</v>
+      </c>
       <c r="F7" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>3835.394</v>
-      </c>
       <c r="H7" s="1">
-        <v>60936.74</v>
+        <v>50988.6469</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6438</v>
+        <v>50988.6469</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5799</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60936.74</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.743</v>
       </c>
+      <c r="E8" s="1">
+        <v>3835.394</v>
+      </c>
       <c r="F8" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G8" s="1">
-        <v>4432.6585</v>
-      </c>
       <c r="H8" s="1">
-        <v>73831.24709999999</v>
+        <v>63883.0897</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7919</v>
+        <v>63883.0897</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6438</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73831.24709999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0408</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E9" s="1">
+        <v>4432.6585</v>
+      </c>
       <c r="F9" s="1">
         <v>567.553</v>
       </c>
-      <c r="G9" s="1">
-        <v>5000.2115</v>
-      </c>
       <c r="H9" s="1">
-        <v>87644.2078</v>
+        <v>77696.0821</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9993</v>
+        <v>77696.0821</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.7919</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87644.2078</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0455</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E10" s="1">
+        <v>5000.2115</v>
+      </c>
       <c r="F10" s="1">
         <v>566.104</v>
       </c>
-      <c r="G10" s="1">
-        <v>5566.3155</v>
-      </c>
       <c r="H10" s="1">
-        <v>97816.8622</v>
+        <v>87868.7173</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1687</v>
+        <v>87868.7173</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9993</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>97816.8622</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E11" s="1">
+        <v>5566.3155</v>
+      </c>
       <c r="F11" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G11" s="1">
-        <v>6145.7301</v>
-      </c>
       <c r="H11" s="1">
-        <v>105517.883</v>
+        <v>95569.7406</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2715</v>
+        <v>95569.7406</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1687</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105517.883</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0213</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E12" s="1">
+        <v>6145.7301</v>
+      </c>
       <c r="F12" s="1">
         <v>593.581</v>
       </c>
-      <c r="G12" s="1">
-        <v>6739.3111</v>
-      </c>
       <c r="H12" s="1">
-        <v>112948.1578</v>
+        <v>102999.9774</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.3221</v>
+        <v>102999.9774</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.2715</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.47</v>
       </c>
-      <c r="L12" s="1">
-        <v>2599.6438</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7400.3562</v>
+        <v>2354.5515</v>
       </c>
       <c r="O12" s="1">
-        <v>2599.6438</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115547.8016</v>
+        <v>-7645.4485</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0003</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E13" s="1">
+        <v>6739.3111</v>
+      </c>
       <c r="F13" s="1">
-        <v>742.2952</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7481.6062</v>
+        <v>727.8558</v>
       </c>
       <c r="H13" s="1">
-        <v>126332.9064</v>
+        <v>113798.6588</v>
       </c>
       <c r="I13" s="1">
-        <v>122599.6438</v>
+        <v>2354.5515</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3868</v>
+        <v>116153.2103</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112354.5515</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6715</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12599.6438</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126332.9064</v>
+        <v>-12354.5515</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0063</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E14" s="1">
+        <v>7467.1669</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7481.6062</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6739.3111</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131325.0636</v>
       </c>
       <c r="I14" s="1">
-        <v>122599.6438</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3868</v>
+        <v>131325.0636</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112354.5515</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0465</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131579.0087</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131579.0087</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131579.0087</v>
+        <v>118524.2637</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0349</v>
+        <v>0.041</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.3605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>651.0205</v>
       </c>
       <c r="G2" s="1">
-        <v>651.0205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1137</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1137</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.2796</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>651.0205</v>
       </c>
       <c r="F3" s="1">
         <v>654.4674</v>
       </c>
       <c r="G3" s="1">
-        <v>1305.4879</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19843.8073</v>
+        <v>9895.7065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3199</v>
+        <v>9895.7065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19843.8073</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0052</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.4022</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1305.4879</v>
       </c>
       <c r="F4" s="1">
         <v>652.4426999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1957.9306</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20003.0768</v>
       </c>
       <c r="I4" s="1">
-        <v>30049.0534</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3474</v>
+        <v>20003.0768</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20049.0534</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3575</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10049.0534</v>
       </c>
-      <c r="O4" s="1">
-        <v>-49.0534</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29950.9466</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.042</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1957.9306</v>
       </c>
       <c r="F5" s="1">
         <v>548.5078</v>
       </c>
       <c r="G5" s="1">
-        <v>2506.4384</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31246.4186</v>
       </c>
       <c r="I5" s="1">
-        <v>38848.2158</v>
+        <v>-49.0534</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4994</v>
+        <v>31197.3652</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28848.2158</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.734</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8799.162399999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1151.7842</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41151.7842</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.8442</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2506.4384</v>
       </c>
       <c r="F6" s="1">
         <v>665.7479</v>
       </c>
       <c r="G6" s="1">
-        <v>3172.1863</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39506.4823</v>
       </c>
       <c r="I6" s="1">
-        <v>49396.458</v>
+        <v>1151.7842</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5717</v>
+        <v>40658.2665</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39396.458</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7181</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10548.2422</v>
       </c>
-      <c r="O6" s="1">
-        <v>603.542</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50603.542</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0107</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.9709</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3172.1863</v>
       </c>
       <c r="F7" s="1">
         <v>604.2488</v>
       </c>
       <c r="G7" s="1">
-        <v>3776.435</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50399.6955</v>
       </c>
       <c r="I7" s="1">
-        <v>59046.8547</v>
+        <v>603.542</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6356</v>
+        <v>51003.2375</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49046.8547</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.4615</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9650.3968</v>
       </c>
-      <c r="O7" s="1">
-        <v>953.1453</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60953.1453</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.743</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3776.435</v>
       </c>
       <c r="F8" s="1">
         <v>426.2042</v>
       </c>
       <c r="G8" s="1">
-        <v>4202.6393</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62901.0574</v>
       </c>
       <c r="I8" s="1">
-        <v>66182.7919</v>
+        <v>953.1453</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7479</v>
+        <v>63854.2027</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56182.7919</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8772</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7135.9371</v>
       </c>
-      <c r="O8" s="1">
-        <v>3817.2081</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73817.2081</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0404</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.6195</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4202.6393</v>
       </c>
       <c r="F9" s="1">
         <v>361.4607</v>
       </c>
       <c r="G9" s="1">
-        <v>4564.0999</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>73664.2812</v>
       </c>
       <c r="I9" s="1">
-        <v>72551.5482</v>
+        <v>3817.2081</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8961</v>
+        <v>77481.4893</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62551.5482</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.8839</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6368.7563</v>
       </c>
-      <c r="O9" s="1">
-        <v>7448.4518</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87448.4518</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0433</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.6646</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4564.0999</v>
       </c>
       <c r="F10" s="1">
         <v>557.3933</v>
       </c>
       <c r="G10" s="1">
-        <v>5121.4932</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80204.9281</v>
       </c>
       <c r="I10" s="1">
-        <v>82397.6773</v>
+        <v>7448.4518</v>
       </c>
       <c r="J10" s="1">
-        <v>16.0886</v>
+        <v>87653.3799</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72397.6773</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.8624</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9846.1291</v>
       </c>
-      <c r="O10" s="1">
-        <v>7602.3227</v>
-      </c>
-      <c r="P10" s="1">
-        <v>97602.3227</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.2588</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5121.4932</v>
       </c>
       <c r="F11" s="1">
         <v>702.8561</v>
       </c>
       <c r="G11" s="1">
-        <v>5824.3493</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87932.4532</v>
       </c>
       <c r="I11" s="1">
-        <v>94528.1298</v>
+        <v>7602.3227</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2298</v>
+        <v>95534.77589999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84528.1298</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.5046</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12130.4524</v>
       </c>
-      <c r="O11" s="1">
-        <v>5471.8702</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105471.8702</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0198</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.8469</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5824.3493</v>
       </c>
       <c r="F12" s="1">
         <v>739.0531999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6563.4025</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>97613.7641</v>
       </c>
       <c r="I12" s="1">
-        <v>106978.885</v>
+        <v>5471.8702</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2993</v>
+        <v>103085.6344</v>
       </c>
       <c r="K12" s="1">
+        <v>96978.88499999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.6506</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.47</v>
       </c>
-      <c r="L12" s="1">
-        <v>2463.6997</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-9987.0555</v>
+        <v>2166.3916</v>
       </c>
       <c r="O12" s="1">
-        <v>5484.8148</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115484.8148</v>
+        <v>-10284.3636</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0001</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.9739</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6563.4025</v>
       </c>
       <c r="F13" s="1">
         <v>543.1604</v>
       </c>
       <c r="G13" s="1">
-        <v>7106.5629</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110828.3014</v>
       </c>
       <c r="I13" s="1">
-        <v>116198.436</v>
+        <v>5187.5066</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3509</v>
+        <v>116015.808</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106198.436</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.1804</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9219.550999999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>6265.2637</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126265.2637</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0062</v>
+        <v>0.0259</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.6787</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7106.5629</v>
       </c>
       <c r="F14" s="1">
         <v>-7106.5629</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124983.1219</v>
       </c>
       <c r="I14" s="1">
-        <v>116198.436</v>
+        <v>5967.9556</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3509</v>
+        <v>130951.0775</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106198.436</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9437</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124983.1219</v>
       </c>
-      <c r="O14" s="1">
-        <v>131248.3856</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131248.3856</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0368</v>
+        <v>0.0392</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.3605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>651.0205</v>
       </c>
       <c r="G2" s="1">
-        <v>651.0205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1137</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1137</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.2796</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>651.0205</v>
       </c>
       <c r="F3" s="1">
         <v>654.4674</v>
       </c>
       <c r="G3" s="1">
-        <v>1305.4879</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19843.8073</v>
+        <v>9895.7065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3199</v>
+        <v>9895.7065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19843.8073</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0052</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.4022</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1305.4879</v>
       </c>
       <c r="F4" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1954.7458</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29951.2011</v>
+        <v>20003.0768</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3473</v>
+        <v>20003.0768</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3199</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29951.2011</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.042</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1954.7458</v>
       </c>
       <c r="F5" s="1">
         <v>570.5537</v>
       </c>
       <c r="G5" s="1">
-        <v>2525.2994</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31195.5922</v>
       </c>
       <c r="I5" s="1">
-        <v>39152.822</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.5042</v>
+        <v>31195.5922</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29152.822</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.9139</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9152.822</v>
       </c>
-      <c r="O5" s="1">
-        <v>847.178</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41148.1792</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.03</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.8442</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2525.2994</v>
       </c>
       <c r="F6" s="1">
         <v>678.7677</v>
       </c>
       <c r="G6" s="1">
-        <v>3204.0671</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>39803.7698</v>
       </c>
       <c r="I6" s="1">
-        <v>49907.3532</v>
+        <v>847.178</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5763</v>
+        <v>40650.9478</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39907.3532</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.803</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10754.5312</v>
       </c>
-      <c r="O6" s="1">
-        <v>92.6468</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50595.153</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0108</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.9709</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3204.0671</v>
       </c>
       <c r="F7" s="1">
         <v>619.8892</v>
       </c>
       <c r="G7" s="1">
-        <v>3823.9564</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50906.2187</v>
       </c>
       <c r="I7" s="1">
-        <v>59807.5421</v>
+        <v>92.6468</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6402</v>
+        <v>50998.8655</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49807.5421</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5451</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9900.188899999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>192.4579</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60947.4767</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.743</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3823.9564</v>
       </c>
       <c r="F8" s="1">
         <v>442.2504</v>
       </c>
       <c r="G8" s="1">
-        <v>4266.2068</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63692.5821</v>
       </c>
       <c r="I8" s="1">
-        <v>67212.1412</v>
+        <v>192.4579</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7545</v>
+        <v>63885.04</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57212.1412</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.9615</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7404.5991</v>
       </c>
-      <c r="O8" s="1">
-        <v>2787.8588</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73846.6526</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0409</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.6195</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4266.2068</v>
       </c>
       <c r="F9" s="1">
         <v>378.5686</v>
       </c>
       <c r="G9" s="1">
-        <v>4644.7754</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74778.4996</v>
       </c>
       <c r="I9" s="1">
-        <v>73882.33070000001</v>
+        <v>2787.8588</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9065</v>
+        <v>77566.3584</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63882.3307</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.974</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6670.1894</v>
       </c>
-      <c r="O9" s="1">
-        <v>6117.6693</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87531.75719999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.044</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.6646</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4644.7754</v>
       </c>
       <c r="F10" s="1">
         <v>580.3517000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5225.1271</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>81622.63830000001</v>
       </c>
       <c r="I10" s="1">
-        <v>84134.01089999999</v>
+        <v>6117.6693</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1018</v>
+        <v>87740.3076</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74134.01089999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9607</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10251.6802</v>
       </c>
-      <c r="O10" s="1">
-        <v>5865.9891</v>
-      </c>
-      <c r="P10" s="1">
-        <v>97687.1474</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.2588</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5225.1271</v>
       </c>
       <c r="F11" s="1">
         <v>732.0327</v>
       </c>
       <c r="G11" s="1">
-        <v>5957.1598</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>89711.7745</v>
       </c>
       <c r="I11" s="1">
-        <v>96768.0174</v>
+        <v>5865.9891</v>
       </c>
       <c r="J11" s="1">
-        <v>16.244</v>
+        <v>95577.76360000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86768.0174</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6059</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12634.0065</v>
       </c>
-      <c r="O11" s="1">
-        <v>3231.9826</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105512.2467</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0202</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.8469</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5957.1598</v>
       </c>
       <c r="F12" s="1">
         <v>772.8138</v>
       </c>
       <c r="G12" s="1">
-        <v>6729.9736</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>99839.61569999999</v>
       </c>
       <c r="I12" s="1">
-        <v>109787.5338</v>
+        <v>3231.9826</v>
       </c>
       <c r="J12" s="1">
-        <v>16.3132</v>
+        <v>103071.5983</v>
       </c>
       <c r="K12" s="1">
+        <v>99787.5338</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.7509</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.47</v>
       </c>
-      <c r="L12" s="1">
-        <v>2519.8786</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-10499.6377</v>
+        <v>2210.2288</v>
       </c>
       <c r="O12" s="1">
-        <v>2732.3448</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115524.0102</v>
+        <v>-10809.2876</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0001</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.9739</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6729.9736</v>
       </c>
       <c r="F13" s="1">
         <v>575.3139</v>
       </c>
       <c r="G13" s="1">
-        <v>7305.2875</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113640.9881</v>
       </c>
       <c r="I13" s="1">
-        <v>119552.8546</v>
+        <v>2422.695</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3652</v>
+        <v>116063.6831</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109552.8546</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2783</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9765.3208</v>
       </c>
-      <c r="O13" s="1">
-        <v>2967.024</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126322.6477</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0064</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.6787</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7305.2875</v>
       </c>
       <c r="F14" s="1">
         <v>-7305.2875</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128478.0913</v>
       </c>
       <c r="I14" s="1">
-        <v>119552.8546</v>
+        <v>2657.3742</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3652</v>
+        <v>131135.4655</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109552.8546</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9964</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128478.0913</v>
       </c>
-      <c r="O14" s="1">
-        <v>131445.1153</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131445.1153</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0358</v>
+        <v>0.0402</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.3605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>651.0205</v>
       </c>
       <c r="G2" s="1">
-        <v>651.0205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1137</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1137</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.2796</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>651.0205</v>
       </c>
       <c r="F3" s="1">
         <v>654.4674</v>
       </c>
       <c r="G3" s="1">
-        <v>1305.4879</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19843.8073</v>
+        <v>9895.7065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3199</v>
+        <v>9895.7065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19843.8073</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0052</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.4022</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1305.4879</v>
       </c>
       <c r="F4" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1954.7458</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29951.2011</v>
+        <v>20003.0768</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3473</v>
+        <v>20003.0768</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3199</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29951.2011</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.042</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1954.7458</v>
       </c>
       <c r="F5" s="1">
         <v>589.5405</v>
       </c>
       <c r="G5" s="1">
-        <v>2544.2863</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31195.5922</v>
       </c>
       <c r="I5" s="1">
-        <v>39457.4086</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.5082</v>
+        <v>31195.5922</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29457.4086</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.0697</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9457.408600000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>542.5914</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41146.6014</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0299</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.8442</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2544.2863</v>
       </c>
       <c r="F6" s="1">
         <v>665.3912</v>
       </c>
       <c r="G6" s="1">
-        <v>3209.6775</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50590.9363</v>
+        <v>40103.04</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>542.5914</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5779</v>
+        <v>40645.6314</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7215</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10542.5914</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50590.9363</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0109</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.9709</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3209.6775</v>
       </c>
       <c r="F7" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3835.8163</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60943.4487</v>
+        <v>50995.3556</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.642</v>
+        <v>50995.3556</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5779</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60943.4487</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.743</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3835.8163</v>
       </c>
       <c r="F8" s="1">
         <v>495.0246</v>
       </c>
       <c r="G8" s="1">
-        <v>4330.8409</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63890.1228</v>
       </c>
       <c r="I8" s="1">
-        <v>68288.19749999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7679</v>
+        <v>63890.1228</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58288.1975</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.1958</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8288.1975</v>
       </c>
-      <c r="O8" s="1">
-        <v>1711.8025</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73847.1547</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0409</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.6195</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4330.8409</v>
       </c>
       <c r="F9" s="1">
         <v>396.2377</v>
       </c>
       <c r="G9" s="1">
-        <v>4727.0786</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>75911.4123</v>
       </c>
       <c r="I9" s="1">
-        <v>75269.7069</v>
+        <v>1711.8025</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9231</v>
+        <v>77623.2148</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65269.7069</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.0709</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6981.5095</v>
       </c>
-      <c r="O9" s="1">
-        <v>4730.2931</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87586.9987</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0446</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.6646</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4727.0786</v>
       </c>
       <c r="F10" s="1">
         <v>604.1269</v>
       </c>
       <c r="G10" s="1">
-        <v>5331.2054</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83068.9515</v>
       </c>
       <c r="I10" s="1">
-        <v>85941.3662</v>
+        <v>4730.2931</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1204</v>
+        <v>87799.2445</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75941.3662</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.0652</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10671.6592</v>
       </c>
-      <c r="O10" s="1">
-        <v>4058.6338</v>
-      </c>
-      <c r="P10" s="1">
-        <v>97743.9065</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.2588</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5331.2054</v>
       </c>
       <c r="F11" s="1">
         <v>762.3526000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6093.558</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>91533.06510000001</v>
       </c>
       <c r="I11" s="1">
-        <v>99098.6571</v>
+        <v>4058.6338</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2629</v>
+        <v>95591.6989</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89098.6571</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.7127</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13157.2909</v>
       </c>
-      <c r="O11" s="1">
-        <v>901.3429</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105523.4683</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0206</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.8469</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6093.558</v>
       </c>
       <c r="F12" s="1">
         <v>647.083</v>
       </c>
       <c r="G12" s="1">
-        <v>6740.641</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>112970.4473</v>
+        <v>102125.5947</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>901.3429</v>
       </c>
       <c r="J12" s="1">
-        <v>16.3189</v>
+        <v>103026.9376</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.4108</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.47</v>
       </c>
-      <c r="L12" s="1">
-        <v>2577.575</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-8323.767900000001</v>
+        <v>2255.0999</v>
       </c>
       <c r="O12" s="1">
-        <v>2577.575</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115548.0223</v>
+        <v>-8646.243</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0002</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.9739</v>
       </c>
       <c r="E13" s="1">
+        <v>6740.641</v>
+      </c>
+      <c r="F13" s="1">
+        <v>721.9967</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>740.995</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7481.636</v>
-      </c>
       <c r="H13" s="1">
-        <v>126333.4095</v>
+        <v>113821.1162</v>
       </c>
       <c r="I13" s="1">
-        <v>122577.575</v>
+        <v>2255.0999</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3838</v>
+        <v>116076.2161</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112255.0999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6535</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12577.575</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126333.4095</v>
+        <v>-12255.0999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0063</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.6787</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7462.6377</v>
       </c>
       <c r="F14" s="1">
-        <v>-7481.636</v>
+        <v>-7462.6377</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131245.4097</v>
       </c>
       <c r="I14" s="1">
-        <v>122577.575</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3838</v>
+        <v>131245.4097</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112255.0999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0423</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131579.5327</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131579.5327</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131579.5327</v>
+        <v>131245.4097</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0349</v>
+        <v>0.041</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.3605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>651.0205</v>
       </c>
       <c r="G2" s="1">
-        <v>651.0205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1137</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1137</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.2796</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>651.0205</v>
       </c>
       <c r="F3" s="1">
         <v>654.4674</v>
       </c>
       <c r="G3" s="1">
-        <v>1305.4879</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19843.8073</v>
+        <v>9895.7065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3199</v>
+        <v>9895.7065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19843.8073</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0052</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.4022</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1305.4879</v>
       </c>
       <c r="F4" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1954.7458</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29951.2011</v>
+        <v>20003.0768</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3473</v>
+        <v>20003.0768</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3199</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29951.2011</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.042</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1954.7458</v>
       </c>
       <c r="F5" s="1">
         <v>608.6536</v>
       </c>
       <c r="G5" s="1">
-        <v>2563.3993</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31195.5922</v>
       </c>
       <c r="I5" s="1">
-        <v>39764.0206</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.5122</v>
+        <v>31195.5922</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29764.0206</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.2265</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9764.0206</v>
       </c>
-      <c r="O5" s="1">
-        <v>235.9794</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41145.0131</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0299</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.8442</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2563.3993</v>
       </c>
       <c r="F6" s="1">
         <v>646.0395</v>
       </c>
       <c r="G6" s="1">
-        <v>3209.4389</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50587.1753</v>
+        <v>40404.3004</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>235.9794</v>
       </c>
       <c r="J6" s="1">
-        <v>15.579</v>
+        <v>40640.2798</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6043</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10235.9794</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50587.1753</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0109</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.9709</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3209.4389</v>
       </c>
       <c r="F7" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3835.5777</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60939.6577</v>
+        <v>50991.5646</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.643</v>
+        <v>50991.5646</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.579</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60939.6577</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.743</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3835.5777</v>
       </c>
       <c r="F8" s="1">
         <v>560.9799</v>
       </c>
       <c r="G8" s="1">
-        <v>4396.5576</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63886.1485</v>
       </c>
       <c r="I8" s="1">
-        <v>69392.4865</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7834</v>
+        <v>63886.1485</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59392.4865</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4846</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9392.486500000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>607.5135</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73837.45540000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0408</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.6195</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4396.5576</v>
       </c>
       <c r="F9" s="1">
         <v>414.4825</v>
       </c>
       <c r="G9" s="1">
-        <v>4811.04</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>77063.3005</v>
       </c>
       <c r="I9" s="1">
-        <v>76695.4608</v>
+        <v>607.5135</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9416</v>
+        <v>77670.814</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66695.4608</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.1699</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7302.9743</v>
       </c>
-      <c r="O9" s="1">
-        <v>3304.5392</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87632.93030000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0453</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.6646</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4811.04</v>
       </c>
       <c r="F10" s="1">
         <v>628.7435</v>
       </c>
       <c r="G10" s="1">
-        <v>5439.7836</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>84544.4068</v>
       </c>
       <c r="I10" s="1">
-        <v>87801.9639</v>
+        <v>3304.5392</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1407</v>
+        <v>87848.946</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77801.9639</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.1715</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11106.5031</v>
       </c>
-      <c r="O10" s="1">
-        <v>2198.0361</v>
-      </c>
-      <c r="P10" s="1">
-        <v>97791.353</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.2588</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5439.7836</v>
       </c>
       <c r="F11" s="1">
         <v>706.772</v>
       </c>
       <c r="G11" s="1">
-        <v>6146.5556</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105532.0563</v>
+        <v>93397.2763</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>2198.0361</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2693</v>
+        <v>95595.3124</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.5448</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12198.0361</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105532.0563</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.8469</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6146.5556</v>
       </c>
       <c r="F12" s="1">
         <v>593.581</v>
       </c>
       <c r="G12" s="1">
-        <v>6740.1366</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>112961.9929</v>
+        <v>103013.8125</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.3201</v>
+        <v>103013.8125</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.2693</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.47</v>
       </c>
-      <c r="L12" s="1">
-        <v>2599.993</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7400.007</v>
+        <v>2301.0285</v>
       </c>
       <c r="O12" s="1">
-        <v>2599.993</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115561.9859</v>
+        <v>-7698.9715</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0003</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.9739</v>
       </c>
       <c r="E13" s="1">
+        <v>6740.1366</v>
+      </c>
+      <c r="F13" s="1">
+        <v>724.7025</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>742.3157</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7482.4523</v>
-      </c>
       <c r="H13" s="1">
-        <v>126347.1931</v>
+        <v>113812.5981</v>
       </c>
       <c r="I13" s="1">
-        <v>122599.993</v>
+        <v>2301.0285</v>
       </c>
       <c r="J13" s="1">
-        <v>16.385</v>
+        <v>116113.6266</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112301.0285</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6615</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12599.993</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126347.1931</v>
+        <v>-12301.0285</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0063</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.6787</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7464.8391</v>
       </c>
       <c r="F14" s="1">
-        <v>-7482.4523</v>
+        <v>-7464.8391</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131284.1255</v>
       </c>
       <c r="I14" s="1">
-        <v>122599.993</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.385</v>
+        <v>131284.1255</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112301.0285</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.044</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131593.8887</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131593.8887</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131593.8887</v>
+        <v>131284.1255</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0349</v>
+        <v>0.041</v>
       </c>
     </row>
   </sheetData>
@@ -4480,8 +4453,8 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.631</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.3868</v>
+        <v>15.0465</v>
       </c>
       <c r="D3" s="1">
-        <v>16.3509</v>
+        <v>14.9437</v>
       </c>
       <c r="E3" s="1">
-        <v>16.3652</v>
+        <v>14.9964</v>
       </c>
       <c r="F3" s="1">
-        <v>16.3838</v>
+        <v>15.0423</v>
       </c>
       <c r="G3" s="1">
-        <v>16.385</v>
+        <v>15.044</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1454</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0615</v>
+        <v>0.1502</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0585</v>
+        <v>0.1465</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0602</v>
+        <v>0.1483</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0614</v>
+        <v>0.1494</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0616</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0907</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0788</v>
+        <v>0.0927</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0781</v>
+        <v>0.0893</v>
       </c>
       <c r="E5" s="3">
-        <v>0.07820000000000001</v>
+        <v>0.0906</v>
       </c>
       <c r="F5" s="3">
-        <v>0.07820000000000001</v>
+        <v>0.0917</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0786</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3788</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5219</v>
+        <v>1.401</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4881</v>
+        <v>1.4135</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5101</v>
+        <v>1.4132</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5247000000000001</v>
+        <v>1.408</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5248</v>
+        <v>1.4032</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1834</v>
+        <v>-0.0227</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1869</v>
+        <v>0.1817</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1867</v>
+        <v>0.1814</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1864</v>
+        <v>0.1808</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1852</v>
+        <v>0.1801</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2599.6438</v>
+        <v>2354.5515</v>
       </c>
       <c r="D8" s="1">
-        <v>2463.6997</v>
+        <v>2166.3916</v>
       </c>
       <c r="E8" s="1">
-        <v>2519.8786</v>
+        <v>2210.2288</v>
       </c>
       <c r="F8" s="1">
-        <v>2577.575</v>
+        <v>2255.0999</v>
       </c>
       <c r="G8" s="1">
-        <v>2599.993</v>
+        <v>2301.0285</v>
       </c>
     </row>
   </sheetData>
